--- a/JetlagNL/steden.xlsx
+++ b/JetlagNL/steden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\JetLagNL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D8B126-EC6D-4F9D-9F79-C806C6366049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CB65A6-3BCF-4DC7-A025-EF393ACABBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C1E82F1C-61ED-453D-A690-8CFA5FA72AF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C1E82F1C-61ED-453D-A690-8CFA5FA72AF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="75">
   <si>
     <t>longitude</t>
   </si>
@@ -247,13 +247,30 @@
   </si>
   <si>
     <t>landskampioen</t>
+  </si>
+  <si>
+    <t>dierentuin</t>
+  </si>
+  <si>
+    <t>inwoners</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,24 +296,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -306,6 +324,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -339,18 +367,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C971732F-621E-4EA8-BABD-59233886B2E9}" name="Table1" displayName="Table1" ref="A1:I1048576" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A1:I1048576" xr:uid="{C971732F-621E-4EA8-BABD-59233886B2E9}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{468963AC-8E3F-4345-A2D5-B0B9526C9367}" name="name" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{4FBBEBF0-2A60-4FD9-BCE9-61BE625CF5CD}" name="province" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{76E05AA3-372A-4164-AF81-CD1701C80DE7}" name="longitude" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{1CAA2D26-FD7F-4E65-8D63-279E403937E0}" name="latitude" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B7151225-05D0-4716-8803-0601D34F7588}" name="altitude" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{60C884F2-1902-41C3-9189-B7AE62C7126C}" name="establish" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{863E530C-35D1-428D-B46C-8A6216C0A7EF}" name="glazenHuis" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C971732F-621E-4EA8-BABD-59233886B2E9}" name="Table1" displayName="Table1" ref="A1:K1048576" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A1:K1048576" xr:uid="{C971732F-621E-4EA8-BABD-59233886B2E9}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{468963AC-8E3F-4345-A2D5-B0B9526C9367}" name="name" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4FBBEBF0-2A60-4FD9-BCE9-61BE625CF5CD}" name="province" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{76E05AA3-372A-4164-AF81-CD1701C80DE7}" name="longitude" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{1CAA2D26-FD7F-4E65-8D63-279E403937E0}" name="latitude" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{B7151225-05D0-4716-8803-0601D34F7588}" name="altitude" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{1FEAFB5F-D129-453A-B184-9170EC3AC5C1}" name="inwoners" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{60C884F2-1902-41C3-9189-B7AE62C7126C}" name="establish" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{863E530C-35D1-428D-B46C-8A6216C0A7EF}" name="glazenHuis" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{5F56CD8A-4154-4C50-B54E-F908F22E88B5}" name="hanze" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{16F1146E-C1CB-4E95-B8AE-D6CEAE6D2744}" name="landskampioen" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{B654489C-8589-4143-A048-D5E2C85802B2}" name="landskampioen" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{16F1146E-C1CB-4E95-B8AE-D6CEAE6D2744}" name="dierentuin" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -673,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5BF233-91BB-48A2-8E9D-DE9014C67F06}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,12 +715,14 @@
     <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="17.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="17.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -706,20 +738,26 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -735,20 +773,26 @@
       <c r="E2" s="1">
         <v>6</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
+        <v>70570</v>
+      </c>
+      <c r="G2" s="1">
         <v>1198</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H2" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -764,20 +808,26 @@
       <c r="E3" s="1">
         <v>2.5</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
+        <v>151765</v>
+      </c>
+      <c r="G3" s="1">
         <v>1125</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,20 +843,26 @@
       <c r="E4" s="1">
         <v>16</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
+        <v>241671</v>
+      </c>
+      <c r="G4" s="1">
         <v>1232</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -822,20 +878,26 @@
       <c r="E5" s="1">
         <v>18.600000000000001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
+        <v>96932</v>
+      </c>
+      <c r="G5" s="1">
         <v>1179</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H5" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -851,20 +913,26 @@
       <c r="E6" s="1">
         <v>6.3</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
+        <v>112850</v>
+      </c>
+      <c r="G6" s="1">
         <v>1185</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,20 +948,26 @@
       <c r="E7" s="1">
         <v>8</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
+        <v>57740</v>
+      </c>
+      <c r="G7" s="1">
         <v>1161</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H7" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -909,20 +983,26 @@
       <c r="E8" s="1">
         <v>3.5</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
+        <v>67320</v>
+      </c>
+      <c r="G8" s="1">
         <v>1266</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -938,20 +1018,26 @@
       <c r="E9" s="1">
         <v>14.5</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
+        <v>203690</v>
+      </c>
+      <c r="G9" s="1">
         <v>1191</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -967,20 +1053,26 @@
       <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
+        <v>29420</v>
+      </c>
+      <c r="G10" s="1">
         <v>900</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -996,20 +1088,26 @@
       <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
+        <v>43165</v>
+      </c>
+      <c r="G11" s="1">
         <v>850</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H11" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1025,20 +1123,26 @@
       <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
+        <v>45846</v>
+      </c>
+      <c r="G12" s="1">
         <v>1247</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1054,20 +1158,26 @@
       <c r="E13" s="1">
         <v>113</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
+        <v>87614</v>
+      </c>
+      <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1083,20 +1193,26 @@
       <c r="E14" s="1">
         <v>50</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
+        <v>124673</v>
+      </c>
+      <c r="G14" s="1">
         <v>-10</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1112,20 +1228,26 @@
       <c r="E15" s="1">
         <v>30</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
+        <v>42280</v>
+      </c>
+      <c r="G15" s="1">
         <v>250</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1141,20 +1263,26 @@
       <c r="E16" s="1">
         <v>53</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
+        <v>37490</v>
+      </c>
+      <c r="G16" s="1">
         <v>650</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H16" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1170,20 +1298,26 @@
       <c r="E17" s="1">
         <v>24</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
+        <v>69440</v>
+      </c>
+      <c r="G17" s="1">
         <v>890</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1199,20 +1333,26 @@
       <c r="E18" s="1">
         <v>38</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
+        <v>45580</v>
+      </c>
+      <c r="G18" s="1">
         <v>1062</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1228,20 +1368,26 @@
       <c r="E19" s="1">
         <v>30</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
+        <v>171225</v>
+      </c>
+      <c r="G19" s="1">
         <v>893</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1257,20 +1403,26 @@
       <c r="E20" s="1">
         <v>18</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
+        <v>141255</v>
+      </c>
+      <c r="G20" s="1">
         <v>792</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1286,20 +1438,26 @@
       <c r="E21" s="1">
         <v>24</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
+        <v>79435</v>
+      </c>
+      <c r="G21" s="1">
         <v>1216</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1315,20 +1473,26 @@
       <c r="E22" s="1">
         <v>6</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
+        <v>50496</v>
+      </c>
+      <c r="G22" s="1">
         <v>1231</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1344,20 +1508,26 @@
       <c r="E23" s="1">
         <v>26</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
+        <v>188971</v>
+      </c>
+      <c r="G23" s="1">
         <v>-10</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1373,20 +1543,26 @@
       <c r="E24" s="1">
         <v>12</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
+        <v>40150</v>
+      </c>
+      <c r="G24" s="1">
         <v>325</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1402,20 +1578,26 @@
       <c r="E25" s="1">
         <v>10</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
+        <v>163896</v>
+      </c>
+      <c r="G25" s="1">
         <v>1028</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1431,20 +1613,26 @@
       <c r="E26" s="1">
         <v>7</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
+        <v>376982</v>
+      </c>
+      <c r="G26" s="1">
         <v>50</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1460,20 +1648,26 @@
       <c r="E27" s="1">
         <v>3</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
+        <v>54120</v>
+      </c>
+      <c r="G27" s="1">
         <v>41</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1489,20 +1683,26 @@
       <c r="E28" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
+        <v>113142</v>
+      </c>
+      <c r="G28" s="1">
         <v>850</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H28" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -1518,20 +1718,26 @@
       <c r="E29" s="1">
         <v>7</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
+        <v>938969</v>
+      </c>
+      <c r="G29" s="1">
         <v>1275</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -1547,20 +1753,26 @@
       <c r="E30" s="1">
         <v>2</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
+        <v>56639</v>
+      </c>
+      <c r="G30" s="1">
         <v>1500</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H30" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1576,20 +1788,26 @@
       <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
+        <v>18795</v>
+      </c>
+      <c r="G31" s="1">
         <v>1356</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H31" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -1605,20 +1823,26 @@
       <c r="E32" s="1">
         <v>6</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
+        <v>168981</v>
+      </c>
+      <c r="G32" s="1">
         <v>948</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H32" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
@@ -1634,20 +1858,26 @@
       <c r="E33" s="1">
         <v>9</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="4">
+        <v>94726</v>
+      </c>
+      <c r="G33" s="1">
         <v>900</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1663,20 +1893,26 @@
       <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="4">
+        <v>76074</v>
+      </c>
+      <c r="G34" s="1">
         <v>716</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H34" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -1692,20 +1928,26 @@
       <c r="E35" s="1">
         <v>0</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="4">
+        <v>90</v>
+      </c>
+      <c r="G35" s="1">
         <v>1848</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -1721,20 +1963,26 @@
       <c r="E36" s="1">
         <v>4</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="4">
+        <v>109978</v>
+      </c>
+      <c r="G36" s="1">
         <v>1150</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H36" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -1750,20 +1998,26 @@
       <c r="E37" s="1">
         <v>6</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="4">
+        <v>568118</v>
+      </c>
+      <c r="G37" s="1">
         <v>1230</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
@@ -1779,20 +2033,26 @@
       <c r="E38" s="1">
         <v>5</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="4">
+        <v>122950</v>
+      </c>
+      <c r="G38" s="1">
         <v>1120</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H38" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -1808,20 +2068,26 @@
       <c r="E39" s="1">
         <v>2</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="4">
+        <v>77348</v>
+      </c>
+      <c r="G39" s="1">
         <v>1143</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H39" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -1837,20 +2103,26 @@
       <c r="E40" s="1">
         <v>6</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="4">
+        <v>130381</v>
+      </c>
+      <c r="G40" s="1">
         <v>860</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H40" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -1866,20 +2138,26 @@
       <c r="E41" s="1">
         <v>2</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="4">
+        <v>600015</v>
+      </c>
+      <c r="G41" s="1">
         <v>1270</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -1895,20 +2173,26 @@
       <c r="E42" s="1">
         <v>0</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="4">
+        <v>231921</v>
+      </c>
+      <c r="G42" s="1">
         <v>1976</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -1924,20 +2208,26 @@
       <c r="E43" s="1">
         <v>-2</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="4">
+        <v>85337</v>
+      </c>
+      <c r="G43" s="1">
         <v>1967</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
@@ -1953,20 +2243,26 @@
       <c r="E44" s="1">
         <v>13</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="4">
+        <v>75030</v>
+      </c>
+      <c r="G44" s="1">
         <v>1050</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
@@ -1982,20 +2278,26 @@
       <c r="E45" s="1">
         <v>11</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="4">
+        <v>82960</v>
+      </c>
+      <c r="G45" s="1">
         <v>768</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -2011,20 +2313,26 @@
       <c r="E46" s="1">
         <v>45</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="4">
+        <v>161981</v>
+      </c>
+      <c r="G46" s="1">
         <v>1119</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H46" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -2040,20 +2348,26 @@
       <c r="E47" s="1">
         <v>21</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="4">
+        <v>83982</v>
+      </c>
+      <c r="G47" s="1">
         <v>1188</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -2069,20 +2383,26 @@
       <c r="E48" s="1">
         <v>4</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="4">
+        <v>133863</v>
+      </c>
+      <c r="G48" s="1">
         <v>1040</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
@@ -2098,20 +2418,26 @@
       <c r="E49" s="1">
         <v>13</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="4">
+        <v>70761</v>
+      </c>
+      <c r="G49" s="1">
         <v>1259</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
@@ -2127,20 +2453,26 @@
       <c r="E50" s="1">
         <v>5</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="4">
+        <v>36546</v>
+      </c>
+      <c r="G50" s="1">
         <v>1141</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H50" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -2156,20 +2488,26 @@
       <c r="E51" s="1">
         <v>5</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="4">
+        <v>243663</v>
+      </c>
+      <c r="G51" s="1">
         <v>1040</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H51" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
@@ -2185,20 +2523,26 @@
       <c r="E52" s="1">
         <v>3</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="4">
+        <v>51960</v>
+      </c>
+      <c r="G52" s="1">
         <v>1551</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -2214,17 +2558,23 @@
       <c r="E53" s="1">
         <v>4</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="4">
+        <v>129784</v>
+      </c>
+      <c r="G53" s="1">
         <v>750</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H53" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>69</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/JetlagNL/steden.xlsx
+++ b/JetlagNL/steden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\JetLagNL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CB65A6-3BCF-4DC7-A025-EF393ACABBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A548CB6-1E59-4E71-8DF6-75555F3825F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C1E82F1C-61ED-453D-A690-8CFA5FA72AF2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="77">
   <si>
     <t>longitude</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>inwoners</t>
+  </si>
+  <si>
+    <t>perrons</t>
+  </si>
+  <si>
+    <t>reizigers</t>
   </si>
 </sst>
 </file>
@@ -263,7 +269,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +280,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -309,12 +321,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -367,20 +389,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C971732F-621E-4EA8-BABD-59233886B2E9}" name="Table1" displayName="Table1" ref="A1:K1048576" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="A1:K1048576" xr:uid="{C971732F-621E-4EA8-BABD-59233886B2E9}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{468963AC-8E3F-4345-A2D5-B0B9526C9367}" name="name" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4FBBEBF0-2A60-4FD9-BCE9-61BE625CF5CD}" name="province" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{76E05AA3-372A-4164-AF81-CD1701C80DE7}" name="longitude" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{1CAA2D26-FD7F-4E65-8D63-279E403937E0}" name="latitude" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{B7151225-05D0-4716-8803-0601D34F7588}" name="altitude" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{1FEAFB5F-D129-453A-B184-9170EC3AC5C1}" name="inwoners" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{60C884F2-1902-41C3-9189-B7AE62C7126C}" name="establish" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{863E530C-35D1-428D-B46C-8A6216C0A7EF}" name="glazenHuis" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{5F56CD8A-4154-4C50-B54E-F908F22E88B5}" name="hanze" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{B654489C-8589-4143-A048-D5E2C85802B2}" name="landskampioen" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{16F1146E-C1CB-4E95-B8AE-D6CEAE6D2744}" name="dierentuin" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C971732F-621E-4EA8-BABD-59233886B2E9}" name="Table1" displayName="Table1" ref="A1:M1048576" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="A1:M1048576" xr:uid="{C971732F-621E-4EA8-BABD-59233886B2E9}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{468963AC-8E3F-4345-A2D5-B0B9526C9367}" name="name" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{4FBBEBF0-2A60-4FD9-BCE9-61BE625CF5CD}" name="province" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{76E05AA3-372A-4164-AF81-CD1701C80DE7}" name="longitude" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{1CAA2D26-FD7F-4E65-8D63-279E403937E0}" name="latitude" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{B7151225-05D0-4716-8803-0601D34F7588}" name="altitude" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{1FEAFB5F-D129-453A-B184-9170EC3AC5C1}" name="inwoners" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{60C884F2-1902-41C3-9189-B7AE62C7126C}" name="establish" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{863E530C-35D1-428D-B46C-8A6216C0A7EF}" name="glazenHuis" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{5F56CD8A-4154-4C50-B54E-F908F22E88B5}" name="hanze" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{B654489C-8589-4143-A048-D5E2C85802B2}" name="landskampioen" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{16F1146E-C1CB-4E95-B8AE-D6CEAE6D2744}" name="dierentuin" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{766413CF-6BBC-418D-AF5B-631612E781A3}" name="perrons" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{513ADD01-563D-48DE-A2BE-F16226473D85}" name="reizigers" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -703,26 +727,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5BF233-91BB-48A2-8E9D-DE9014C67F06}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="17.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="3" customWidth="1"/>
+    <col min="11" max="12" width="8.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -756,8 +783,14 @@
       <c r="K1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -791,8 +824,14 @@
       <c r="K2" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="3">
+        <v>2</v>
+      </c>
+      <c r="M2" s="6">
+        <v>5548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -826,8 +865,14 @@
       <c r="K3" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="3">
+        <v>6</v>
+      </c>
+      <c r="M3" s="6">
+        <v>36131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -861,8 +906,14 @@
       <c r="K4" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="3">
+        <v>6</v>
+      </c>
+      <c r="M4" s="6">
+        <v>63532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -896,8 +947,14 @@
       <c r="K5" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>6474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -931,8 +988,14 @@
       <c r="K6" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="3">
+        <v>5</v>
+      </c>
+      <c r="M6" s="6">
+        <v>56752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -966,8 +1029,14 @@
       <c r="K7" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="M7" s="6">
+        <v>7012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,8 +1070,14 @@
       <c r="K8" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="3">
+        <v>3</v>
+      </c>
+      <c r="M8" s="6">
+        <v>11359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1111,14 @@
       <c r="K9" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="3">
+        <v>3</v>
+      </c>
+      <c r="M9" s="6">
+        <v>31144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1071,8 +1152,14 @@
       <c r="K10" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="6">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,8 +1193,14 @@
       <c r="K11" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+      <c r="M11" s="6">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1141,8 +1234,14 @@
       <c r="K12" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="3">
+        <v>2</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1176,8 +1275,14 @@
       <c r="K13" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="3">
+        <v>4</v>
+      </c>
+      <c r="M13" s="6">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1211,8 +1316,14 @@
       <c r="K14" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="3">
+        <v>6</v>
+      </c>
+      <c r="M14" s="6">
+        <v>9791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1246,8 +1357,14 @@
       <c r="K15" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="3">
+        <v>3</v>
+      </c>
+      <c r="M15" s="6">
+        <v>8967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1281,8 +1398,14 @@
       <c r="K16" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="3">
+        <v>4</v>
+      </c>
+      <c r="M16" s="6">
+        <v>8078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1316,8 +1439,14 @@
       <c r="K17" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="3">
+        <v>5</v>
+      </c>
+      <c r="M17" s="6">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1351,8 +1480,14 @@
       <c r="K18" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="3">
+        <v>2</v>
+      </c>
+      <c r="M18" s="6">
+        <v>6738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1386,8 +1521,14 @@
       <c r="K19" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="3">
+        <v>8</v>
+      </c>
+      <c r="M19" s="6">
+        <v>43362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1421,8 +1562,14 @@
       <c r="K20" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="3">
+        <v>4</v>
+      </c>
+      <c r="M20" s="6">
+        <v>12590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1456,8 +1603,14 @@
       <c r="K21" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="3">
+        <v>3</v>
+      </c>
+      <c r="M21" s="6">
+        <v>15346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1491,8 +1644,14 @@
       <c r="K22" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="3">
+        <v>2</v>
+      </c>
+      <c r="M22" s="6">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1526,8 +1685,14 @@
       <c r="K23" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="3">
+        <v>4</v>
+      </c>
+      <c r="M23" s="6">
+        <v>39943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1561,8 +1726,14 @@
       <c r="K24" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="3">
+        <v>3</v>
+      </c>
+      <c r="M24" s="6">
+        <v>10763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1596,8 +1767,14 @@
       <c r="K25" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="3">
+        <v>6</v>
+      </c>
+      <c r="M25" s="6">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1631,8 +1808,14 @@
       <c r="K26" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="3">
+        <v>16</v>
+      </c>
+      <c r="M26" s="6">
+        <v>229788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1666,8 +1849,14 @@
       <c r="K27" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="3">
+        <v>4</v>
+      </c>
+      <c r="M27" s="6">
+        <v>13157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1701,8 +1890,14 @@
       <c r="K28" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="3">
+        <v>5</v>
+      </c>
+      <c r="M28" s="6">
+        <v>15272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -1736,8 +1931,14 @@
       <c r="K29" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="3">
+        <v>11</v>
+      </c>
+      <c r="M29" s="6">
+        <v>171272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -1771,8 +1972,14 @@
       <c r="K30" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="3">
+        <v>3</v>
+      </c>
+      <c r="M30" s="6">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1806,8 +2013,14 @@
       <c r="K31" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="3">
+        <v>2</v>
+      </c>
+      <c r="M31" s="6">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -1841,8 +2054,14 @@
       <c r="K32" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="3">
+        <v>6</v>
+      </c>
+      <c r="M32" s="6">
+        <v>36507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
@@ -1876,8 +2095,14 @@
       <c r="K33" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="3">
+        <v>5</v>
+      </c>
+      <c r="M33" s="6">
+        <v>25012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1911,8 +2136,14 @@
       <c r="K34" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="3">
+        <v>3</v>
+      </c>
+      <c r="M34" s="6">
+        <v>12896</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -1946,8 +2177,14 @@
       <c r="K35" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="3">
+        <v>6</v>
+      </c>
+      <c r="M35" s="6">
+        <v>90108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -1981,8 +2218,14 @@
       <c r="K36" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="3">
+        <v>2</v>
+      </c>
+      <c r="M36" s="6">
+        <v>34989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -2016,8 +2259,14 @@
       <c r="K37" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="3">
+        <v>12</v>
+      </c>
+      <c r="M37" s="6">
+        <v>80091</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
@@ -2051,8 +2300,14 @@
       <c r="K38" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="3">
+        <v>7</v>
+      </c>
+      <c r="M38" s="6">
+        <v>20360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -2086,8 +2341,14 @@
       <c r="K39" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="3">
+        <v>5</v>
+      </c>
+      <c r="M39" s="6">
+        <v>28246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -2121,8 +2382,14 @@
       <c r="K40" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="3">
+        <v>6</v>
+      </c>
+      <c r="M40" s="6">
+        <v>80409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -2156,8 +2423,14 @@
       <c r="K41" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="3">
+        <v>13</v>
+      </c>
+      <c r="M41" s="6">
+        <v>104840</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -2191,8 +2464,14 @@
       <c r="K42" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="3">
+        <v>4</v>
+      </c>
+      <c r="M42" s="6">
+        <v>26979</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -2226,8 +2505,14 @@
       <c r="K43" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="3">
+        <v>4</v>
+      </c>
+      <c r="M43" s="6">
+        <v>12592</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
@@ -2261,8 +2546,14 @@
       <c r="K44" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="3">
+        <v>3</v>
+      </c>
+      <c r="M44" s="6">
+        <v>6544</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
@@ -2296,8 +2587,14 @@
       <c r="K45" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="3">
+        <v>3</v>
+      </c>
+      <c r="M45" s="6">
+        <v>20355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -2331,8 +2628,14 @@
       <c r="K46" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="3">
+        <v>5</v>
+      </c>
+      <c r="M46" s="6">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -2366,8 +2669,14 @@
       <c r="K47" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="3">
+        <v>3</v>
+      </c>
+      <c r="M47" s="6">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -2401,8 +2710,14 @@
       <c r="K48" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="3">
+        <v>14</v>
+      </c>
+      <c r="M48" s="6">
+        <v>42976</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
@@ -2436,8 +2751,14 @@
       <c r="K49" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="3">
+        <v>3</v>
+      </c>
+      <c r="M49" s="6">
+        <v>7548</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
@@ -2471,8 +2792,14 @@
       <c r="K50" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="3">
+        <v>3</v>
+      </c>
+      <c r="M50" s="6">
+        <v>6386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -2506,8 +2833,14 @@
       <c r="K51" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="3">
+        <v>11</v>
+      </c>
+      <c r="M51" s="6">
+        <v>16064</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
@@ -2541,8 +2874,14 @@
       <c r="K52" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="3">
+        <v>2</v>
+      </c>
+      <c r="M52" s="6">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -2576,11 +2915,19 @@
       <c r="K53" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="L53" s="3">
+        <v>7</v>
+      </c>
+      <c r="M53" s="6">
+        <v>7705</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>